--- a/Resultados_mantencion_alta.xlsx
+++ b/Resultados_mantencion_alta.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12588076900.80002</v>
+        <v>640108574274.0112</v>
       </c>
       <c r="B2" t="n">
-        <v>1.769000053405762</v>
+        <v>0.6050000190734863</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -499,18 +499,146 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
         <v>280</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +674,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -554,7 +682,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -562,7 +690,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -570,7 +698,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -578,7 +706,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -586,7 +714,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -594,7 +722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -602,7 +730,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -610,7 +738,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -618,7 +746,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
@@ -626,7 +754,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -634,7 +762,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -642,7 +770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -650,7 +778,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
@@ -658,7 +786,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
@@ -666,7 +794,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
@@ -674,7 +802,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
@@ -682,7 +810,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
@@ -690,7 +818,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
@@ -698,7 +826,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
@@ -706,7 +834,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -714,7 +842,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
@@ -722,7 +850,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
@@ -730,7 +858,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
@@ -738,7 +866,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
@@ -746,7 +874,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
@@ -754,7 +882,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
@@ -762,7 +890,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
@@ -770,7 +898,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
@@ -778,7 +906,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
@@ -786,7 +914,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
@@ -794,7 +922,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
@@ -802,7 +930,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
@@ -810,7 +938,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
@@ -818,7 +946,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
@@ -826,7 +954,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
@@ -834,7 +962,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
@@ -842,7 +970,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
@@ -850,7 +978,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
@@ -858,7 +986,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
@@ -866,7 +994,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
@@ -874,7 +1002,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
@@ -882,7 +1010,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
@@ -890,7 +1018,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
@@ -898,7 +1026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
@@ -906,7 +1034,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
@@ -914,7 +1042,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
@@ -922,7 +1050,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
@@ -930,7 +1058,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
@@ -938,7 +1066,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
@@ -946,7 +1074,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
@@ -954,7 +1082,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
@@ -962,7 +1090,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
@@ -970,7 +1098,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>53</v>
@@ -978,7 +1106,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>54</v>
@@ -986,7 +1114,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>55</v>
@@ -994,7 +1122,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>56</v>
@@ -1002,7 +1130,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>57</v>
@@ -1010,7 +1138,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>58</v>
@@ -1018,7 +1146,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>59</v>
@@ -1026,7 +1154,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>60</v>
@@ -1034,7 +1162,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
         <v>61</v>
@@ -1042,7 +1170,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>62</v>
@@ -1050,7 +1178,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>63</v>
@@ -1058,7 +1186,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>64</v>
@@ -1066,7 +1194,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>65</v>
@@ -1074,7 +1202,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>66</v>
@@ -1082,7 +1210,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
         <v>67</v>
@@ -1090,7 +1218,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>68</v>
@@ -1098,7 +1226,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
         <v>69</v>
@@ -1106,7 +1234,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>70</v>
@@ -1114,7 +1242,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>71</v>
@@ -1122,7 +1250,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>72</v>
@@ -1130,7 +1258,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>73</v>
@@ -1138,7 +1266,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>74</v>
@@ -1146,7 +1274,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>75</v>
@@ -1154,7 +1282,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>76</v>
@@ -1162,7 +1290,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>77</v>
@@ -1170,7 +1298,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>78</v>
@@ -1178,7 +1306,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>79</v>
@@ -1186,7 +1314,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>80</v>
@@ -1194,7 +1322,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>81</v>
@@ -1202,7 +1330,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>82</v>
@@ -1210,7 +1338,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>83</v>
@@ -1218,7 +1346,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>84</v>
@@ -1226,7 +1354,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>85</v>
@@ -1234,7 +1362,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>86</v>
@@ -1242,7 +1370,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>87</v>
@@ -1250,7 +1378,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>88</v>
@@ -1258,7 +1386,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>89</v>
@@ -1266,7 +1394,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>90</v>
@@ -1274,7 +1402,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>91</v>
@@ -1282,7 +1410,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>92</v>
@@ -1290,7 +1418,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>93</v>
@@ -1298,7 +1426,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>94</v>
@@ -1306,7 +1434,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>95</v>
@@ -1314,7 +1442,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>96</v>
@@ -1322,7 +1450,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
         <v>97</v>
@@ -1330,7 +1458,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>98</v>
@@ -1338,7 +1466,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
         <v>99</v>
@@ -1346,7 +1474,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>100</v>
@@ -1354,7 +1482,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>101</v>
@@ -1362,7 +1490,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
         <v>102</v>
@@ -1370,7 +1498,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
         <v>103</v>
@@ -1378,7 +1506,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>104</v>
@@ -1386,7 +1514,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>105</v>
@@ -1394,7 +1522,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
         <v>106</v>
@@ -1402,7 +1530,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>107</v>
@@ -1410,7 +1538,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>108</v>
@@ -1418,7 +1546,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>109</v>
@@ -1426,7 +1554,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
         <v>110</v>
@@ -1434,7 +1562,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
         <v>111</v>
@@ -1442,7 +1570,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>112</v>
@@ -1450,7 +1578,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>113</v>
@@ -1458,7 +1586,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>114</v>
@@ -1466,7 +1594,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
         <v>115</v>
@@ -1474,7 +1602,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
         <v>116</v>
@@ -1482,7 +1610,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
         <v>117</v>
@@ -1490,7 +1618,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
         <v>118</v>
@@ -1498,7 +1626,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>119</v>
@@ -1506,7 +1634,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>120</v>
@@ -1514,7 +1642,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
         <v>121</v>
@@ -1522,7 +1650,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>122</v>
@@ -1530,7 +1658,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
         <v>123</v>
@@ -1538,7 +1666,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>124</v>
@@ -1546,7 +1674,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
         <v>125</v>
@@ -1554,7 +1682,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
         <v>126</v>
@@ -1562,7 +1690,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>127</v>
@@ -1570,7 +1698,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>128</v>
@@ -1578,7 +1706,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>129</v>
@@ -1586,7 +1714,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
         <v>130</v>
@@ -1594,7 +1722,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>131</v>
@@ -1602,7 +1730,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
         <v>132</v>
@@ -1610,7 +1738,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>133</v>
@@ -1618,7 +1746,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
         <v>134</v>
@@ -1626,7 +1754,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>135</v>
@@ -1634,7 +1762,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>136</v>
@@ -1642,7 +1770,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
         <v>137</v>
@@ -1650,7 +1778,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
         <v>138</v>
@@ -1658,7 +1786,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
         <v>139</v>
@@ -1666,7 +1794,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
         <v>140</v>
@@ -1674,7 +1802,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B143" t="n">
         <v>141</v>
@@ -1682,7 +1810,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
         <v>142</v>
@@ -1690,7 +1818,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>143</v>
@@ -1698,7 +1826,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
         <v>144</v>
@@ -1706,7 +1834,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
         <v>145</v>
@@ -1714,7 +1842,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>146</v>
@@ -1722,7 +1850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>147</v>
@@ -1730,7 +1858,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>148</v>
@@ -1738,7 +1866,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>149</v>
@@ -1746,7 +1874,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
         <v>150</v>
@@ -1754,7 +1882,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
         <v>151</v>
@@ -1762,7 +1890,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>152</v>
@@ -1770,7 +1898,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>153</v>
@@ -1778,7 +1906,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
         <v>154</v>
@@ -1786,7 +1914,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>155</v>
@@ -1794,7 +1922,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
         <v>156</v>
@@ -1802,7 +1930,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
         <v>157</v>
@@ -1810,7 +1938,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>158</v>
@@ -1818,7 +1946,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>159</v>
@@ -1826,7 +1954,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
         <v>160</v>
@@ -1834,7 +1962,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>161</v>
@@ -1842,7 +1970,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
         <v>162</v>
@@ -1850,7 +1978,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>163</v>
@@ -1858,7 +1986,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
         <v>164</v>
@@ -1866,7 +1994,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
         <v>165</v>
@@ -1874,7 +2002,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B168" t="n">
         <v>166</v>
@@ -1882,7 +2010,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>167</v>
@@ -1890,7 +2018,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
         <v>168</v>
@@ -1898,7 +2026,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
         <v>169</v>
@@ -1906,7 +2034,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
         <v>170</v>
@@ -1914,7 +2042,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B173" t="n">
         <v>171</v>
@@ -1922,7 +2050,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>172</v>
@@ -1930,7 +2058,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>173</v>
@@ -1938,7 +2066,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
         <v>174</v>
@@ -1946,7 +2074,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
         <v>175</v>
@@ -1954,7 +2082,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
         <v>176</v>
@@ -1962,7 +2090,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
         <v>177</v>
@@ -1970,7 +2098,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
         <v>178</v>
@@ -1978,7 +2106,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>179</v>
@@ -1986,7 +2114,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>180</v>
@@ -1994,7 +2122,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>181</v>
@@ -2002,7 +2130,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
         <v>182</v>
@@ -2010,7 +2138,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
         <v>183</v>
@@ -2018,7 +2146,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
         <v>184</v>
@@ -2026,7 +2154,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>185</v>
@@ -2034,7 +2162,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
         <v>186</v>
@@ -2042,7 +2170,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
         <v>187</v>
@@ -2050,7 +2178,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
         <v>188</v>
@@ -2058,7 +2186,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
         <v>189</v>
@@ -2066,7 +2194,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
         <v>190</v>
@@ -2074,7 +2202,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
         <v>191</v>
@@ -2082,7 +2210,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>192</v>
@@ -2090,7 +2218,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
         <v>193</v>
@@ -2098,7 +2226,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
         <v>194</v>
@@ -2106,7 +2234,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B197" t="n">
         <v>195</v>
@@ -2114,7 +2242,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
         <v>196</v>
@@ -2122,7 +2250,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B199" t="n">
         <v>197</v>
@@ -2130,7 +2258,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
         <v>198</v>
@@ -2138,7 +2266,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>199</v>
@@ -2146,7 +2274,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
         <v>200</v>
@@ -2154,7 +2282,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B203" t="n">
         <v>201</v>
@@ -2162,7 +2290,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
         <v>202</v>
@@ -2170,7 +2298,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
         <v>203</v>
@@ -2178,7 +2306,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
         <v>204</v>
@@ -2186,7 +2314,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
         <v>205</v>
@@ -2194,7 +2322,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B208" t="n">
         <v>206</v>
@@ -2202,7 +2330,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B209" t="n">
         <v>207</v>
@@ -2210,7 +2338,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B210" t="n">
         <v>208</v>
@@ -2218,7 +2346,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B211" t="n">
         <v>209</v>
@@ -2226,7 +2354,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B212" t="n">
         <v>210</v>
@@ -2234,7 +2362,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B213" t="n">
         <v>211</v>
@@ -2242,7 +2370,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
         <v>212</v>
@@ -2250,7 +2378,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B215" t="n">
         <v>213</v>
@@ -2258,7 +2386,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
         <v>214</v>
@@ -2266,7 +2394,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
         <v>215</v>
@@ -2274,7 +2402,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B218" t="n">
         <v>216</v>
@@ -2282,7 +2410,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B219" t="n">
         <v>217</v>
@@ -2290,7 +2418,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B220" t="n">
         <v>218</v>
@@ -2298,7 +2426,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
         <v>219</v>
@@ -2306,7 +2434,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B222" t="n">
         <v>220</v>
@@ -2314,7 +2442,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
         <v>221</v>
@@ -2322,7 +2450,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B224" t="n">
         <v>222</v>
@@ -2330,7 +2458,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B225" t="n">
         <v>223</v>
@@ -2338,7 +2466,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B226" t="n">
         <v>224</v>
@@ -2346,7 +2474,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B227" t="n">
         <v>225</v>
@@ -2354,7 +2482,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B228" t="n">
         <v>226</v>
@@ -2362,7 +2490,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B229" t="n">
         <v>227</v>
@@ -2370,7 +2498,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B230" t="n">
         <v>228</v>
@@ -2378,7 +2506,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B231" t="n">
         <v>229</v>
@@ -2386,7 +2514,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B232" t="n">
         <v>230</v>
@@ -2394,7 +2522,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B233" t="n">
         <v>231</v>
@@ -2402,7 +2530,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B234" t="n">
         <v>232</v>
@@ -2410,7 +2538,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B235" t="n">
         <v>233</v>
@@ -2418,7 +2546,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B236" t="n">
         <v>234</v>
@@ -2426,7 +2554,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B237" t="n">
         <v>235</v>
@@ -2434,7 +2562,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B238" t="n">
         <v>236</v>
@@ -2442,7 +2570,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B239" t="n">
         <v>237</v>
@@ -2450,7 +2578,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
         <v>238</v>
@@ -2458,7 +2586,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
         <v>239</v>
@@ -2466,7 +2594,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B242" t="n">
         <v>240</v>
@@ -2474,7 +2602,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B243" t="n">
         <v>241</v>
@@ -2482,7 +2610,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
         <v>242</v>
@@ -2490,7 +2618,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B245" t="n">
         <v>243</v>
@@ -2498,7 +2626,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B246" t="n">
         <v>244</v>
@@ -2506,7 +2634,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B247" t="n">
         <v>245</v>
@@ -2514,7 +2642,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B248" t="n">
         <v>246</v>
@@ -2522,7 +2650,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B249" t="n">
         <v>247</v>
@@ -2530,7 +2658,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
         <v>248</v>
@@ -2538,7 +2666,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B251" t="n">
         <v>249</v>
@@ -2546,7 +2674,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B252" t="n">
         <v>250</v>
@@ -2554,7 +2682,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B253" t="n">
         <v>251</v>
@@ -2562,7 +2690,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B254" t="n">
         <v>252</v>
@@ -2570,7 +2698,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B255" t="n">
         <v>253</v>
@@ -2578,7 +2706,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B256" t="n">
         <v>254</v>
@@ -2586,7 +2714,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B257" t="n">
         <v>255</v>
@@ -2594,7 +2722,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B258" t="n">
         <v>256</v>
@@ -2602,7 +2730,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B259" t="n">
         <v>257</v>
@@ -2610,7 +2738,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B260" t="n">
         <v>258</v>
@@ -2618,7 +2746,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B261" t="n">
         <v>259</v>
@@ -2626,7 +2754,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B262" t="n">
         <v>260</v>
@@ -2634,7 +2762,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B263" t="n">
         <v>261</v>
@@ -2642,7 +2770,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B264" t="n">
         <v>262</v>
@@ -2650,7 +2778,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B265" t="n">
         <v>263</v>
@@ -2658,7 +2786,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B266" t="n">
         <v>264</v>
@@ -2666,7 +2794,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B267" t="n">
         <v>265</v>
@@ -2674,7 +2802,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B268" t="n">
         <v>266</v>
@@ -2682,7 +2810,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B269" t="n">
         <v>267</v>
@@ -2690,7 +2818,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B270" t="n">
         <v>268</v>
@@ -2698,7 +2826,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B271" t="n">
         <v>269</v>
@@ -2706,7 +2834,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B272" t="n">
         <v>270</v>
@@ -2714,7 +2842,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B273" t="n">
         <v>271</v>
@@ -2722,7 +2850,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B274" t="n">
         <v>272</v>
@@ -2730,7 +2858,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B275" t="n">
         <v>273</v>
@@ -2738,7 +2866,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B276" t="n">
         <v>274</v>
@@ -2746,7 +2874,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B277" t="n">
         <v>275</v>
@@ -2754,7 +2882,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B278" t="n">
         <v>276</v>
@@ -2762,7 +2890,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B279" t="n">
         <v>277</v>
@@ -2770,7 +2898,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
         <v>278</v>
@@ -2778,7 +2906,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B281" t="n">
         <v>279</v>
@@ -2786,7 +2914,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B282" t="n">
         <v>280</v>
@@ -2794,7 +2922,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
         <v>281</v>
@@ -2802,7 +2930,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
         <v>282</v>
@@ -2810,7 +2938,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B285" t="n">
         <v>283</v>
@@ -2818,7 +2946,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B286" t="n">
         <v>284</v>
@@ -2826,7 +2954,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B287" t="n">
         <v>285</v>
@@ -2834,7 +2962,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B288" t="n">
         <v>286</v>
@@ -2842,7 +2970,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B289" t="n">
         <v>287</v>
@@ -2850,7 +2978,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B290" t="n">
         <v>288</v>
@@ -2858,7 +2986,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B291" t="n">
         <v>289</v>
@@ -2866,7 +2994,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B292" t="n">
         <v>290</v>
@@ -2874,7 +3002,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B293" t="n">
         <v>291</v>
@@ -2882,7 +3010,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B294" t="n">
         <v>292</v>
@@ -2890,7 +3018,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B295" t="n">
         <v>293</v>
@@ -2898,7 +3026,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B296" t="n">
         <v>294</v>
@@ -2906,7 +3034,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B297" t="n">
         <v>295</v>
@@ -2914,7 +3042,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B298" t="n">
         <v>296</v>
@@ -2922,7 +3050,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B299" t="n">
         <v>297</v>
@@ -2930,7 +3058,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B300" t="n">
         <v>298</v>
@@ -2938,7 +3066,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B301" t="n">
         <v>299</v>
@@ -2946,7 +3074,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B302" t="n">
         <v>300</v>
@@ -2954,7 +3082,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B303" t="n">
         <v>301</v>
@@ -2962,7 +3090,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B304" t="n">
         <v>302</v>
@@ -2970,7 +3098,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B305" t="n">
         <v>303</v>
@@ -2978,7 +3106,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B306" t="n">
         <v>304</v>
@@ -2986,7 +3114,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B307" t="n">
         <v>305</v>
@@ -2994,7 +3122,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B308" t="n">
         <v>306</v>
@@ -3002,7 +3130,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B309" t="n">
         <v>307</v>
@@ -3010,7 +3138,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B310" t="n">
         <v>308</v>
@@ -3018,7 +3146,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B311" t="n">
         <v>309</v>
@@ -3026,7 +3154,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B312" t="n">
         <v>310</v>
@@ -3034,7 +3162,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B313" t="n">
         <v>311</v>
@@ -3042,7 +3170,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B314" t="n">
         <v>312</v>
@@ -3050,7 +3178,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B315" t="n">
         <v>313</v>
@@ -3058,7 +3186,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B316" t="n">
         <v>314</v>
@@ -3066,7 +3194,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B317" t="n">
         <v>315</v>
@@ -3074,7 +3202,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B318" t="n">
         <v>316</v>
@@ -3082,7 +3210,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B319" t="n">
         <v>317</v>
@@ -3090,7 +3218,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B320" t="n">
         <v>318</v>
@@ -3098,7 +3226,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B321" t="n">
         <v>319</v>
@@ -3106,7 +3234,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B322" t="n">
         <v>320</v>
@@ -3114,7 +3242,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B323" t="n">
         <v>321</v>
@@ -3122,7 +3250,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B324" t="n">
         <v>322</v>
@@ -3130,7 +3258,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B325" t="n">
         <v>323</v>
@@ -3138,7 +3266,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B326" t="n">
         <v>324</v>
@@ -3146,7 +3274,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B327" t="n">
         <v>325</v>
@@ -3154,7 +3282,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B328" t="n">
         <v>326</v>
@@ -3162,7 +3290,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B329" t="n">
         <v>327</v>
@@ -3170,7 +3298,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B330" t="n">
         <v>328</v>
@@ -3178,7 +3306,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B331" t="n">
         <v>329</v>
@@ -3186,7 +3314,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B332" t="n">
         <v>330</v>
@@ -3194,7 +3322,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B333" t="n">
         <v>331</v>
@@ -3202,7 +3330,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B334" t="n">
         <v>332</v>
@@ -3210,7 +3338,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B335" t="n">
         <v>333</v>
@@ -3218,7 +3346,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B336" t="n">
         <v>334</v>
@@ -3226,7 +3354,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B337" t="n">
         <v>335</v>
@@ -3234,7 +3362,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B338" t="n">
         <v>336</v>
@@ -3242,7 +3370,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B339" t="n">
         <v>337</v>
@@ -3250,7 +3378,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B340" t="n">
         <v>338</v>
@@ -3258,7 +3386,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B341" t="n">
         <v>339</v>
@@ -3266,7 +3394,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B342" t="n">
         <v>340</v>
@@ -3274,7 +3402,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B343" t="n">
         <v>341</v>
@@ -3282,7 +3410,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B344" t="n">
         <v>342</v>
@@ -3290,7 +3418,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B345" t="n">
         <v>343</v>
@@ -3298,7 +3426,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B346" t="n">
         <v>344</v>
@@ -3306,7 +3434,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B347" t="n">
         <v>345</v>
@@ -3314,7 +3442,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B348" t="n">
         <v>346</v>
@@ -3322,7 +3450,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B349" t="n">
         <v>347</v>
@@ -3330,7 +3458,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B350" t="n">
         <v>348</v>
@@ -3338,7 +3466,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B351" t="n">
         <v>349</v>
@@ -3346,7 +3474,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B352" t="n">
         <v>350</v>
@@ -3354,7 +3482,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B353" t="n">
         <v>351</v>
@@ -3362,7 +3490,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B354" t="n">
         <v>352</v>
@@ -3370,7 +3498,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B355" t="n">
         <v>353</v>
@@ -3378,7 +3506,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B356" t="n">
         <v>354</v>
@@ -3386,7 +3514,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B357" t="n">
         <v>355</v>
@@ -3394,7 +3522,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B358" t="n">
         <v>356</v>
@@ -3402,7 +3530,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B359" t="n">
         <v>357</v>
@@ -3410,7 +3538,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B360" t="n">
         <v>358</v>
@@ -3418,7 +3546,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B361" t="n">
         <v>359</v>
@@ -3426,7 +3554,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B362" t="n">
         <v>360</v>
@@ -3434,7 +3562,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B363" t="n">
         <v>361</v>
@@ -3442,7 +3570,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B364" t="n">
         <v>362</v>
@@ -3450,7 +3578,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B365" t="n">
         <v>363</v>
@@ -3458,7 +3586,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B366" t="n">
         <v>364</v>
@@ -5222,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3076725954.240003</v>
+        <v>449208244800.0004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1141080000000001</v>
+        <v>16.66000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5233,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2216138946.480002</v>
+        <v>13481640000.00001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08219100000000007</v>
+        <v>0.5000000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -5244,10 +5372,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2969627806.080002</v>
+        <v>87091394399.99998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1101360000000001</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -5255,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139534974.0000001</v>
+        <v>307074.010608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005175000000000004</v>
+        <v>1.13886e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5266,10 +5394,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4186049219.999999</v>
+        <v>90326988000.00008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1552499999999999</v>
+        <v>3.350000000000003</v>
       </c>
     </row>
   </sheetData>
